--- a/bots/crawl_ch/output/toilet_coop_2022-08-24.xlsx
+++ b/bots/crawl_ch/output/toilet_coop_2022-08-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:07</t>
+          <t>2022-08-24 20:57:16</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:07</t>
+          <t>2022-08-24 20:57:16</t>
         </is>
       </c>
     </row>
@@ -675,7 +675,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:07</t>
+          <t>2022-08-24 20:57:16</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:07</t>
+          <t>2022-08-24 20:57:16</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:07</t>
+          <t>2022-08-24 20:57:16</t>
         </is>
       </c>
     </row>
@@ -844,7 +844,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:07</t>
+          <t>2022-08-24 20:57:16</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:07</t>
+          <t>2022-08-24 20:57:16</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:07</t>
+          <t>2022-08-24 20:57:16</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:07</t>
+          <t>2022-08-24 20:57:16</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:07</t>
+          <t>2022-08-24 20:57:16</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:07</t>
+          <t>2022-08-24 20:57:16</t>
         </is>
       </c>
     </row>
@@ -1250,50 +1250,50 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:07</t>
+          <t>2022-08-24 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6149220</t>
+          <t>6478814</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Naturaline Baby Feuchttücher 72 Stk.</t>
+          <t>Super Silk Soft mit Baumwolle</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/naturaline-baby-feuchttuecher-72-stk/p/6149220</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/super-silk-soft-mit-baumwolle/p/6478814</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>72ST</t>
+          <t>15ST</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Super Silk</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.05/1ST</t>
+          <t>0.14/1ST</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1313,60 +1313,60 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Naturaline Baby Feuchttücher 72 Stk. 3.95 Schweizer Franken</t>
+          <t>Super Silk Soft mit Baumwolle 2.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:07</t>
+          <t>2022-08-24 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6478814</t>
+          <t>6149220</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Super Silk Soft mit Baumwolle</t>
+          <t>Naturaline Baby Feuchttücher 72 Stk.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/super-silk-soft-mit-baumwolle/p/6478814</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/naturaline-baby-feuchttuecher-72-stk/p/6149220</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>15ST</t>
+          <t>72ST</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Super Silk</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.14/1ST</t>
+          <t>0.05/1ST</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1386,43 +1386,43 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Super Silk Soft mit Baumwolle 2.10 Schweizer Franken</t>
+          <t>Naturaline Baby Feuchttücher 72 Stk. 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:07</t>
+          <t>2022-08-24 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3640534</t>
+          <t>3630714</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Kandoo Feuchttücher Sensitive 50 Stück</t>
+          <t>Kandoo Feuchttücher Melone 55 Stück</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/baby-kind/pflege-accessoires/feuchttuecher/kandoo-feuchttuecher-sensitive-50-stueck/p/3640534</t>
+          <t>/de/kosmetik-gesundheit/baby-kind/pflege-accessoires/feuchttuecher/kandoo-feuchttuecher-melone-55-stueck/p/3630714</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>50ST</t>
+          <t>55ST</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
         <v>5</v>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0.08/1ST</t>
+          <t>0.07/1ST</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1464,55 +1464,55 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Kandoo Feuchttücher Sensitive 50 Stück 3.75 Schweizer Franken</t>
+          <t>Kandoo Feuchttücher Melone 55 Stück 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:07</t>
+          <t>2022-08-24 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3630714</t>
+          <t>6577910</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Kandoo Feuchttücher Melone 55 Stück</t>
+          <t>Naturaline Kids feuchtes Toilettenpapier</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/baby-kind/pflege-accessoires/feuchttuecher/kandoo-feuchttuecher-melone-55-stueck/p/3630714</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/naturaline-kids-feuchtes-toilettenpapier/p/6577910</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>55ST</t>
+          <t>50ST</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Kandoo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.07/1ST</t>
+          <t>0.06/1ST</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1532,60 +1532,60 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'baby-kind', 'pflege-accessoires', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Kandoo Feuchttücher Melone 55 Stück 3.75 Schweizer Franken</t>
+          <t>Naturaline Kids feuchtes Toilettenpapier 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:07</t>
+          <t>2022-08-24 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6577910</t>
+          <t>6866582</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Naturaline Kids feuchtes Toilettenpapier</t>
+          <t>Tempo Bamboo Eco Box</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/naturaline-kids-feuchtes-toilettenpapier/p/6577910</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-bamboo-eco-box/p/6866582</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>50ST</t>
+          <t>90ST</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0.06/1ST</t>
+          <t>0.04/1ST</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1605,39 +1605,39 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Naturaline Kids feuchtes Toilettenpapier 2.95 Schweizer Franken</t>
+          <t>Tempo Bamboo Eco Box 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:07</t>
+          <t>2022-08-24 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6866582</t>
+          <t>4687972</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Tempo Bamboo Eco Box</t>
+          <t>Taschentücher Strong 10x10 Stück</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-bamboo-eco-box/p/6866582</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/taschentuecher-strong-10x10-stueck/p/4687972</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>90ST</t>
+          <t>10ST</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1648,17 +1648,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Super Silk</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.04/1ST</t>
+          <t>0.18/1ST</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1678,60 +1678,60 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Tempo Bamboo Eco Box 3.95 Schweizer Franken</t>
+          <t>Taschentücher Strong 10x10 Stück 1.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:07</t>
+          <t>2022-08-24 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4687972</t>
+          <t>6800946</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Taschentücher Strong 10x10 Stück</t>
+          <t>Hipp Natural zart duftend 3x48 Stück</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/taschentuecher-strong-10x10-stueck/p/4687972</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/hipp-natural-zart-duftend-3x48-stueck/p/6800946</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>10ST</t>
+          <t>144ST</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
         <v>5</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Super Silk</t>
+          <t>Hipp</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.18/1ST</t>
+          <t>0.07/1ST</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1751,60 +1751,60 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Taschentücher Strong 10x10 Stück 1.80 Schweizer Franken</t>
+          <t>Hipp Natural zart duftend 3x48 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:07</t>
+          <t>2022-08-24 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6800946</t>
+          <t>6868354</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Hipp Natural zart duftend 3x48 Stück</t>
+          <t>Tempo Bamboo Eco</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/hipp-natural-zart-duftend-3x48-stueck/p/6800946</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-bamboo-eco/p/6868354</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>144ST</t>
+          <t>12ST</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hipp</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0.07/1ST</t>
+          <t>0.33/1ST</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1824,112 +1824,94 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Hipp Natural zart duftend 3x48 Stück 9.95 Schweizer Franken</t>
+          <t>Tempo Bamboo Eco 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:07</t>
+          <t>2022-08-24 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6868354</t>
+          <t>6996030</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Tempo Bamboo Eco</t>
+          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-bamboo-eco/p/6868354</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/tela-viva-haushaltspapier-3-lagig-4-rollen/p/6996030</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>12ST</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
+          <t>200BLT</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Tela</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>0.33/1ST</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Tempo Bamboo Eco 3.95 Schweizer Franken</t>
+          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:07</t>
+          <t>2022-08-24 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6996030</t>
+          <t>6996029</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen</t>
+          <t>Tela Lux 4-lagig 6 Rollen</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/tela-viva-haushaltspapier-3-lagig-4-rollen/p/6996030</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-lux-4-lagig-6-rollen/p/6996029</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>200BLT</t>
+          <t>6Rol</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1943,48 +1925,64 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>0.93/1Rol</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Rolle</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>1Rol</t>
+        </is>
+      </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen 5.95 Schweizer Franken</t>
+          <t>Tela Lux 4-lagig 6 Rollen 5.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:07</t>
+          <t>2022-08-24 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6996029</t>
+          <t>6996129</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Tela Lux 4-lagig 6 Rollen</t>
+          <t>Tela Toilettenpapier Futura 3-lagig 9 Rollen</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-lux-4-lagig-6-rollen/p/6996029</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-toilettenpapier-futura-3-lagig-9-rollen/p/6996129</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>6Rol</t>
+          <t>9Rol</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -1998,7 +1996,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>8.40</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2028,126 +2026,128 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Tela Lux 4-lagig 6 Rollen 5.60 Schweizer Franken</t>
+          <t>Tela Toilettenpapier Futura 3-lagig 9 Rollen 8.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:07</t>
+          <t>2022-08-24 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6996129</t>
+          <t>6636712</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tela Toilettenpapier Futura 3-lagig 9 Rollen</t>
+          <t>Pampers Coconut Pure 42 Feuchttücher</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-toilettenpapier-futura-3-lagig-9-rollen/p/6996129</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/pampers-coconut-pure-42-feuchttuecher/p/6636712</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>9Rol</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+          <t>42ST</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Tela</t>
+          <t>Pampers</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>8.40</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.93/1Rol</t>
+          <t>0.12/1ST</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Tela Toilettenpapier Futura 3-lagig 9 Rollen 8.40 Schweizer Franken</t>
+          <t>Pampers Coconut Pure 42 Feuchttücher 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:07</t>
+          <t>2022-08-24 20:57:16</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6636712</t>
+          <t>6727164</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Pampers Coconut Pure 42 Feuchttücher</t>
+          <t>Wetties Allzwecktücher 80Stück</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/pampers-coconut-pure-42-feuchttuecher/p/6636712</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/wetties-allzwecktuecher-80stueck/p/6727164</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>42ST</t>
+          <t>80ST</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Pampers</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0.12/1ST</t>
+          <t>0.05/1ST</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2172,85 +2172,12 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Pampers Coconut Pure 42 Feuchttücher 4.95 Schweizer Franken</t>
+          <t>Wetties Allzwecktücher 80Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-24 07:09:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>6727164</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Wetties Allzwecktücher 80Stück</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/wetties-allzwecktuecher-80stueck/p/6727164</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>80ST</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="n">
-        <v>5</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>0.05/1ST</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Wetties Allzwecktücher 80Stück 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>2022-08-24 07:09:07</t>
+          <t>2022-08-24 20:57:16</t>
         </is>
       </c>
     </row>
